--- a/templates/decline.xlsx
+++ b/templates/decline.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takkand_D\Desktop\App\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="3" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>X</t>
   </si>
@@ -43,17 +49,209 @@
     <t>12в</t>
   </si>
   <si>
-    <t>13в*</t>
-  </si>
-  <si>
-    <t>14в*</t>
+    <t>1в</t>
+  </si>
+  <si>
+    <t>2в</t>
+  </si>
+  <si>
+    <t>17в</t>
+  </si>
+  <si>
+    <t>скв К-11</t>
+  </si>
+  <si>
+    <t>скв К-16</t>
+  </si>
+  <si>
+    <t>скв К-21</t>
+  </si>
+  <si>
+    <t>скв К-22бис</t>
+  </si>
+  <si>
+    <t>скв К-23</t>
+  </si>
+  <si>
+    <t>14в</t>
+  </si>
+  <si>
+    <t>скв К-24</t>
+  </si>
+  <si>
+    <t>скв К-25</t>
+  </si>
+  <si>
+    <t>скв К-27</t>
+  </si>
+  <si>
+    <t>скв К-35</t>
+  </si>
+  <si>
+    <t>3в</t>
+  </si>
+  <si>
+    <t>4в</t>
+  </si>
+  <si>
+    <t>13351771.8</t>
+  </si>
+  <si>
+    <t>6778604.7</t>
+  </si>
+  <si>
+    <t>13352283.8</t>
+  </si>
+  <si>
+    <t>6778738.5</t>
+  </si>
+  <si>
+    <t>13351563.86</t>
+  </si>
+  <si>
+    <t>6781441.02</t>
+  </si>
+  <si>
+    <t>13352640.59</t>
+  </si>
+  <si>
+    <t>6776025.06</t>
+  </si>
+  <si>
+    <t>13352695.36</t>
+  </si>
+  <si>
+    <t>6775637.77</t>
+  </si>
+  <si>
+    <t>13354594.97</t>
+  </si>
+  <si>
+    <t>6764637.45</t>
+  </si>
+  <si>
+    <t>13355104.67</t>
+  </si>
+  <si>
+    <t>6769016.57</t>
+  </si>
+  <si>
+    <t>13355307.71</t>
+  </si>
+  <si>
+    <t>6787214.32</t>
+  </si>
+  <si>
+    <t>13354625.12</t>
+  </si>
+  <si>
+    <t>6786351.2</t>
+  </si>
+  <si>
+    <t>13359299.61</t>
+  </si>
+  <si>
+    <t>6753196.54</t>
+  </si>
+  <si>
+    <t>13358752.4</t>
+  </si>
+  <si>
+    <t>6755800.7</t>
+  </si>
+  <si>
+    <t>13350437.5</t>
+  </si>
+  <si>
+    <t>6785506.9</t>
+  </si>
+  <si>
+    <t>13356150.6</t>
+  </si>
+  <si>
+    <t>6760796.1</t>
+  </si>
+  <si>
+    <t>13354650.3</t>
+  </si>
+  <si>
+    <t>6758053.1</t>
+  </si>
+  <si>
+    <t>13353526.01</t>
+  </si>
+  <si>
+    <t>6785051.61</t>
+  </si>
+  <si>
+    <t>13353257.37</t>
+  </si>
+  <si>
+    <t>6784975.61</t>
+  </si>
+  <si>
+    <t>13353418.7</t>
+  </si>
+  <si>
+    <t>6785111.1</t>
+  </si>
+  <si>
+    <t>6787513.8</t>
+  </si>
+  <si>
+    <t>13351230.5</t>
+  </si>
+  <si>
+    <t>6782477.3</t>
+  </si>
+  <si>
+    <t>13360134.4</t>
+  </si>
+  <si>
+    <t>6763181.6</t>
+  </si>
+  <si>
+    <t>13347717.262</t>
+  </si>
+  <si>
+    <t>6769717.911</t>
+  </si>
+  <si>
+    <t>13347953.957</t>
+  </si>
+  <si>
+    <t>6770179.114</t>
+  </si>
+  <si>
+    <t>13347806.924</t>
+  </si>
+  <si>
+    <t>6721073.996</t>
+  </si>
+  <si>
+    <t>13346613.81</t>
+  </si>
+  <si>
+    <t>6721637.144</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.073</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,7 +363,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -188,6 +386,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -199,6 +401,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +487,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -486,22 +698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9:AE10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -509,15 +721,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="5">
-        <v>182</v>
-      </c>
-      <c r="B2" s="5">
-        <v>8.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="31.5" customHeight="1">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -531,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>43800</v>
+        <v>43784</v>
       </c>
       <c r="F5" s="3">
         <v>43830</v>
@@ -609,486 +821,2751 @@
         <v>52596</v>
       </c>
       <c r="AE5" s="3">
-        <v>52932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>52916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="W7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>13473294.673999999</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6785985.2060000002</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>700</v>
-      </c>
-      <c r="G6" s="5">
-        <v>700</v>
-      </c>
-      <c r="H6" s="5">
-        <v>700</v>
-      </c>
-      <c r="I6" s="5">
-        <v>700</v>
-      </c>
-      <c r="J6" s="5">
-        <v>700</v>
-      </c>
-      <c r="K6" s="5">
-        <v>700</v>
-      </c>
-      <c r="L6" s="5">
-        <v>700</v>
-      </c>
-      <c r="M6" s="5">
-        <v>700</v>
-      </c>
-      <c r="N6" s="5">
-        <v>700</v>
-      </c>
-      <c r="O6" s="5">
-        <v>700</v>
-      </c>
-      <c r="P6" s="5">
-        <v>700</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>700</v>
-      </c>
-      <c r="R6" s="5">
-        <v>700</v>
-      </c>
-      <c r="S6" s="5">
-        <v>700</v>
-      </c>
-      <c r="T6" s="5">
-        <v>700</v>
-      </c>
-      <c r="U6" s="5">
-        <v>700</v>
-      </c>
-      <c r="V6" s="5">
-        <v>700</v>
-      </c>
-      <c r="W6" s="5">
-        <v>700</v>
-      </c>
-      <c r="X6" s="5">
-        <v>700</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>700</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>700</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>700</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>700</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>700</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>700</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
-        <v>13474197.115999999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6786073.3439999996</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>650</v>
-      </c>
-      <c r="G7" s="5">
-        <v>650</v>
-      </c>
-      <c r="H7" s="5">
-        <v>650</v>
-      </c>
-      <c r="I7" s="5">
-        <v>650</v>
-      </c>
-      <c r="J7" s="5">
-        <v>650</v>
-      </c>
-      <c r="K7" s="5">
-        <v>650</v>
-      </c>
-      <c r="L7" s="5">
-        <v>650</v>
-      </c>
-      <c r="M7" s="5">
-        <v>650</v>
-      </c>
-      <c r="N7" s="5">
-        <v>650</v>
-      </c>
-      <c r="O7" s="5">
-        <v>650</v>
-      </c>
-      <c r="P7" s="5">
-        <v>650</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>650</v>
-      </c>
-      <c r="R7" s="5">
-        <v>650</v>
-      </c>
-      <c r="S7" s="5">
-        <v>650</v>
-      </c>
-      <c r="T7" s="5">
-        <v>650</v>
-      </c>
-      <c r="U7" s="5">
-        <v>650</v>
-      </c>
-      <c r="V7" s="5">
-        <v>650</v>
-      </c>
-      <c r="W7" s="5">
-        <v>650</v>
-      </c>
-      <c r="X7" s="5">
-        <v>650</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>650</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>650</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>650</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>650</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>650</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>650</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>13472505.350000001</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6787181.4029999999</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>650</v>
-      </c>
-      <c r="G8" s="5">
-        <v>650</v>
-      </c>
-      <c r="H8" s="5">
-        <v>650</v>
-      </c>
-      <c r="I8" s="5">
-        <v>650</v>
-      </c>
-      <c r="J8" s="5">
-        <v>650</v>
-      </c>
-      <c r="K8" s="5">
-        <v>650</v>
-      </c>
-      <c r="L8" s="5">
-        <v>650</v>
-      </c>
-      <c r="M8" s="5">
-        <v>650</v>
-      </c>
-      <c r="N8" s="5">
-        <v>650</v>
-      </c>
-      <c r="O8" s="5">
-        <v>650</v>
-      </c>
-      <c r="P8" s="5">
-        <v>650</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>650</v>
-      </c>
-      <c r="R8" s="5">
-        <v>650</v>
-      </c>
-      <c r="S8" s="5">
-        <v>650</v>
-      </c>
-      <c r="T8" s="5">
-        <v>650</v>
-      </c>
-      <c r="U8" s="5">
-        <v>650</v>
-      </c>
-      <c r="V8" s="5">
-        <v>650</v>
-      </c>
-      <c r="W8" s="5">
-        <v>650</v>
-      </c>
-      <c r="X8" s="5">
-        <v>650</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>650</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>650</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>650</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>650</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>650</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>650</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5">
-        <v>13485428.048</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6783321.2439999999</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>600</v>
-      </c>
-      <c r="G9" s="5">
-        <v>600</v>
-      </c>
-      <c r="H9" s="5">
-        <v>600</v>
-      </c>
-      <c r="I9" s="5">
-        <v>600</v>
-      </c>
-      <c r="J9" s="5">
-        <v>600</v>
-      </c>
-      <c r="K9" s="5">
-        <v>600</v>
-      </c>
-      <c r="L9" s="5">
-        <v>600</v>
-      </c>
-      <c r="M9" s="5">
-        <v>600</v>
-      </c>
-      <c r="N9" s="5">
-        <v>600</v>
-      </c>
-      <c r="O9" s="5">
-        <v>600</v>
-      </c>
-      <c r="P9" s="5">
-        <v>600</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>600</v>
-      </c>
-      <c r="R9" s="5">
-        <v>600</v>
-      </c>
-      <c r="S9" s="5">
-        <v>600</v>
-      </c>
-      <c r="T9" s="5">
-        <v>600</v>
-      </c>
-      <c r="U9" s="5">
-        <v>600</v>
-      </c>
-      <c r="V9" s="5">
-        <v>600</v>
-      </c>
-      <c r="W9" s="5">
-        <v>600</v>
-      </c>
-      <c r="X9" s="5">
-        <v>600</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>600</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>600</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>600</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>600</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>600</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>600</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
-        <v>13486610.921</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6778817.0319999997</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>906</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1120</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>580</v>
+      </c>
+      <c r="G15" s="5">
+        <v>580</v>
+      </c>
+      <c r="H15" s="5">
+        <v>580</v>
+      </c>
+      <c r="I15" s="5">
+        <v>580</v>
+      </c>
+      <c r="J15" s="5">
+        <v>580</v>
+      </c>
+      <c r="K15" s="5">
+        <v>580</v>
+      </c>
+      <c r="L15" s="5">
+        <v>580</v>
+      </c>
+      <c r="M15" s="5">
+        <v>580</v>
+      </c>
+      <c r="N15" s="5">
+        <v>580</v>
+      </c>
+      <c r="O15" s="5">
+        <v>580</v>
+      </c>
+      <c r="P15" s="5">
+        <v>580</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>580</v>
+      </c>
+      <c r="R15" s="5">
+        <v>580</v>
+      </c>
+      <c r="S15" s="5">
+        <v>580</v>
+      </c>
+      <c r="T15" s="5">
+        <v>580</v>
+      </c>
+      <c r="U15" s="5">
+        <v>580</v>
+      </c>
+      <c r="V15" s="5">
+        <v>580</v>
+      </c>
+      <c r="W15" s="5">
+        <v>580</v>
+      </c>
+      <c r="X15" s="5">
+        <v>580</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>580</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>580</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>580</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>580</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>580</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>580</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>580</v>
+      </c>
+      <c r="G16" s="5">
+        <v>580</v>
+      </c>
+      <c r="H16" s="5">
+        <v>580</v>
+      </c>
+      <c r="I16" s="5">
+        <v>580</v>
+      </c>
+      <c r="J16" s="5">
+        <v>580</v>
+      </c>
+      <c r="K16" s="5">
+        <v>580</v>
+      </c>
+      <c r="L16" s="5">
+        <v>580</v>
+      </c>
+      <c r="M16" s="5">
+        <v>580</v>
+      </c>
+      <c r="N16" s="5">
+        <v>580</v>
+      </c>
+      <c r="O16" s="5">
+        <v>580</v>
+      </c>
+      <c r="P16" s="5">
+        <v>580</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>580</v>
+      </c>
+      <c r="R16" s="5">
+        <v>580</v>
+      </c>
+      <c r="S16" s="5">
+        <v>580</v>
+      </c>
+      <c r="T16" s="5">
+        <v>580</v>
+      </c>
+      <c r="U16" s="5">
+        <v>580</v>
+      </c>
+      <c r="V16" s="5">
+        <v>580</v>
+      </c>
+      <c r="W16" s="5">
+        <v>580</v>
+      </c>
+      <c r="X16" s="5">
+        <v>580</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>580</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>580</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>580</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>580</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>580</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>580</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13356886</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6788612</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>795</v>
+      </c>
+      <c r="G19" s="5">
+        <v>795</v>
+      </c>
+      <c r="H19" s="5">
+        <v>795</v>
+      </c>
+      <c r="I19" s="5">
+        <v>795</v>
+      </c>
+      <c r="J19" s="5">
+        <v>795</v>
+      </c>
+      <c r="K19" s="5">
+        <v>795</v>
+      </c>
+      <c r="L19" s="5">
+        <v>795</v>
+      </c>
+      <c r="M19" s="5">
+        <v>795</v>
+      </c>
+      <c r="N19" s="5">
+        <v>795</v>
+      </c>
+      <c r="O19" s="5">
+        <v>795</v>
+      </c>
+      <c r="P19" s="5">
+        <v>795</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>795</v>
+      </c>
+      <c r="R19" s="5">
+        <v>795</v>
+      </c>
+      <c r="S19" s="5">
+        <v>795</v>
+      </c>
+      <c r="T19" s="5">
+        <v>795</v>
+      </c>
+      <c r="U19" s="5">
+        <v>795</v>
+      </c>
+      <c r="V19" s="5">
+        <v>795</v>
+      </c>
+      <c r="W19" s="5">
+        <v>795</v>
+      </c>
+      <c r="X19" s="5">
+        <v>795</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>795</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>795</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>795</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>795</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>795</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>795</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>795</v>
+      </c>
+      <c r="G20" s="5">
+        <v>795</v>
+      </c>
+      <c r="H20" s="5">
+        <v>795</v>
+      </c>
+      <c r="I20" s="5">
+        <v>795</v>
+      </c>
+      <c r="J20" s="5">
+        <v>795</v>
+      </c>
+      <c r="K20" s="5">
+        <v>795</v>
+      </c>
+      <c r="L20" s="5">
+        <v>795</v>
+      </c>
+      <c r="M20" s="5">
+        <v>795</v>
+      </c>
+      <c r="N20" s="5">
+        <v>795</v>
+      </c>
+      <c r="O20" s="5">
+        <v>795</v>
+      </c>
+      <c r="P20" s="5">
+        <v>795</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>795</v>
+      </c>
+      <c r="R20" s="5">
+        <v>795</v>
+      </c>
+      <c r="S20" s="5">
+        <v>795</v>
+      </c>
+      <c r="T20" s="5">
+        <v>795</v>
+      </c>
+      <c r="U20" s="5">
+        <v>795</v>
+      </c>
+      <c r="V20" s="5">
+        <v>795</v>
+      </c>
+      <c r="W20" s="5">
+        <v>795</v>
+      </c>
+      <c r="X20" s="5">
+        <v>795</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>795</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>795</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>795</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>795</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>795</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>795</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>247</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="X22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>900</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G23" s="5">
         <v>900</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H23" s="5">
         <v>900</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I23" s="5">
         <v>900</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J23" s="5">
         <v>900</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K23" s="5">
         <v>900</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L23" s="5">
         <v>900</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M23" s="5">
         <v>900</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N23" s="5">
         <v>900</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O23" s="5">
         <v>900</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P23" s="5">
         <v>900</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q23" s="5">
         <v>900</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R23" s="5">
         <v>900</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S23" s="5">
         <v>900</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T23" s="5">
         <v>900</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U23" s="5">
         <v>900</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V23" s="5">
         <v>900</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W23" s="5">
         <v>900</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X23" s="5">
         <v>900</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y23" s="5">
         <v>900</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z23" s="5">
         <v>900</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA23" s="5">
         <v>900</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB23" s="5">
         <v>900</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC23" s="5">
         <v>900</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD23" s="5">
         <v>900</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE23" s="5">
         <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5">
+        <v>13351563</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="U24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="W24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="X24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="U25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="V25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="W25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="X25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>1100</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>795</v>
+      </c>
+      <c r="G26" s="5">
+        <v>795</v>
+      </c>
+      <c r="H26" s="5">
+        <v>795</v>
+      </c>
+      <c r="I26" s="5">
+        <v>795</v>
+      </c>
+      <c r="J26" s="5">
+        <v>795</v>
+      </c>
+      <c r="K26" s="5">
+        <v>795</v>
+      </c>
+      <c r="L26" s="5">
+        <v>795</v>
+      </c>
+      <c r="M26" s="5">
+        <v>795</v>
+      </c>
+      <c r="N26" s="5">
+        <v>795</v>
+      </c>
+      <c r="O26" s="5">
+        <v>795</v>
+      </c>
+      <c r="P26" s="5">
+        <v>795</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>795</v>
+      </c>
+      <c r="R26" s="5">
+        <v>795</v>
+      </c>
+      <c r="S26" s="5">
+        <v>795</v>
+      </c>
+      <c r="T26" s="5">
+        <v>795</v>
+      </c>
+      <c r="U26" s="5">
+        <v>795</v>
+      </c>
+      <c r="V26" s="5">
+        <v>795</v>
+      </c>
+      <c r="W26" s="5">
+        <v>795</v>
+      </c>
+      <c r="X26" s="5">
+        <v>795</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>795</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>795</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>795</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>795</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>795</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>795</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="G27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="I27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="L27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="M27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="N27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="O27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="P27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="R27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="S27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="T27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="U27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="V27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="W27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="X27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="G28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="H28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="I28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="J28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="K28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="L28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="M28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="N28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="O28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="P28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="R28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="S28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="T28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="U28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="V28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="W28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="X28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="H29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="I29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="L29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="M29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="N29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="O29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="P29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="R29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="S29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="T29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="U29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="V29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="W29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="X29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>1041</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="G30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="H30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="M30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="N30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="O30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="P30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="R30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="S30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="T30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="U30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="V30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="W30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="X30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>-1500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>13351771.799999999</v>
+      </c>
+      <c r="C1">
+        <v>6778604.7000000002</v>
+      </c>
+      <c r="D1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>13352283.800000001</v>
+      </c>
+      <c r="C2">
+        <v>6778738.5</v>
+      </c>
+      <c r="D2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>13351563.859999999</v>
+      </c>
+      <c r="C3">
+        <v>6781441.0200000005</v>
+      </c>
+      <c r="D3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>13352640.59</v>
+      </c>
+      <c r="C4">
+        <v>6776025.0600000005</v>
+      </c>
+      <c r="D4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>13352695.359999999</v>
+      </c>
+      <c r="C5">
+        <v>6775637.7699999996</v>
+      </c>
+      <c r="D5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>13354594.970000001</v>
+      </c>
+      <c r="C6">
+        <v>6764637.4500000002</v>
+      </c>
+      <c r="D6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>13355104.67</v>
+      </c>
+      <c r="C7">
+        <v>6769016.5700000003</v>
+      </c>
+      <c r="D7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>13355307.710000001</v>
+      </c>
+      <c r="C8">
+        <v>6787214.3200000003</v>
+      </c>
+      <c r="D8">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>906</v>
+      </c>
+      <c r="B9">
+        <v>13354625.119999999</v>
+      </c>
+      <c r="C9">
+        <v>6786351.2000000002</v>
+      </c>
+      <c r="D9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1120</v>
+      </c>
+      <c r="B10">
+        <v>13359299.610000001</v>
+      </c>
+      <c r="C10">
+        <v>6753196.54</v>
+      </c>
+      <c r="D10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>13358752.4</v>
+      </c>
+      <c r="C11">
+        <v>6755800.7000000002</v>
+      </c>
+      <c r="D11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>13356886</v>
+      </c>
+      <c r="C12">
+        <v>6788612</v>
+      </c>
+      <c r="D12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>13350437.5</v>
+      </c>
+      <c r="C13">
+        <v>6785506.9000000004</v>
+      </c>
+      <c r="D13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>13356150.6</v>
+      </c>
+      <c r="C14">
+        <v>6760796.0999999996</v>
+      </c>
+      <c r="D14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>13354650.300000001</v>
+      </c>
+      <c r="C15">
+        <v>6758053.0999999996</v>
+      </c>
+      <c r="D15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>13353526.01</v>
+      </c>
+      <c r="C16">
+        <v>6785051.6100000003</v>
+      </c>
+      <c r="D16">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>247</v>
+      </c>
+      <c r="B17">
+        <v>13353257.369999999</v>
+      </c>
+      <c r="C17">
+        <v>6784975.6100000003</v>
+      </c>
+      <c r="D17">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>13353418.699999999</v>
+      </c>
+      <c r="C18">
+        <v>6785111.0999999996</v>
+      </c>
+      <c r="D18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>13351563</v>
+      </c>
+      <c r="C19">
+        <v>6787513.7999999998</v>
+      </c>
+      <c r="D19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>13351230.5</v>
+      </c>
+      <c r="C20">
+        <v>6782477.2999999998</v>
+      </c>
+      <c r="D20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>13360134.4</v>
+      </c>
+      <c r="C21">
+        <v>6763181.5999999996</v>
+      </c>
+      <c r="D21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>13347717.262</v>
+      </c>
+      <c r="C22">
+        <v>6769717.9109999994</v>
+      </c>
+      <c r="D22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>13347953.957</v>
+      </c>
+      <c r="C23">
+        <v>6770179.1140000001</v>
+      </c>
+      <c r="D23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>13347806.924000001</v>
+      </c>
+      <c r="C24">
+        <v>6721073.9960000003</v>
+      </c>
+      <c r="D24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1041</v>
+      </c>
+      <c r="B25">
+        <v>13346613.810000001</v>
+      </c>
+      <c r="C25">
+        <v>6721637.1440000003</v>
+      </c>
+      <c r="D25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/decline.xlsx
+++ b/templates/decline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takkand_D\Desktop\App\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takkand_D\Desktop\Scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>X</t>
   </si>
@@ -94,157 +94,10 @@
     <t>4в</t>
   </si>
   <si>
-    <t>13351771.8</t>
-  </si>
-  <si>
-    <t>6778604.7</t>
-  </si>
-  <si>
-    <t>13352283.8</t>
-  </si>
-  <si>
-    <t>6778738.5</t>
-  </si>
-  <si>
-    <t>13351563.86</t>
-  </si>
-  <si>
-    <t>6781441.02</t>
-  </si>
-  <si>
-    <t>13352640.59</t>
-  </si>
-  <si>
-    <t>6776025.06</t>
-  </si>
-  <si>
-    <t>13352695.36</t>
-  </si>
-  <si>
-    <t>6775637.77</t>
-  </si>
-  <si>
-    <t>13354594.97</t>
-  </si>
-  <si>
-    <t>6764637.45</t>
-  </si>
-  <si>
-    <t>13355104.67</t>
-  </si>
-  <si>
-    <t>6769016.57</t>
-  </si>
-  <si>
-    <t>13355307.71</t>
-  </si>
-  <si>
-    <t>6787214.32</t>
-  </si>
-  <si>
-    <t>13354625.12</t>
-  </si>
-  <si>
-    <t>6786351.2</t>
-  </si>
-  <si>
-    <t>13359299.61</t>
-  </si>
-  <si>
-    <t>6753196.54</t>
-  </si>
-  <si>
-    <t>13358752.4</t>
-  </si>
-  <si>
-    <t>6755800.7</t>
-  </si>
-  <si>
-    <t>13350437.5</t>
-  </si>
-  <si>
-    <t>6785506.9</t>
-  </si>
-  <si>
-    <t>13356150.6</t>
-  </si>
-  <si>
-    <t>6760796.1</t>
-  </si>
-  <si>
-    <t>13354650.3</t>
-  </si>
-  <si>
-    <t>6758053.1</t>
-  </si>
-  <si>
-    <t>13353526.01</t>
-  </si>
-  <si>
-    <t>6785051.61</t>
-  </si>
-  <si>
-    <t>13353257.37</t>
-  </si>
-  <si>
-    <t>6784975.61</t>
-  </si>
-  <si>
-    <t>13353418.7</t>
-  </si>
-  <si>
-    <t>6785111.1</t>
-  </si>
-  <si>
-    <t>6787513.8</t>
-  </si>
-  <si>
-    <t>13351230.5</t>
-  </si>
-  <si>
-    <t>6782477.3</t>
-  </si>
-  <si>
-    <t>13360134.4</t>
-  </si>
-  <si>
-    <t>6763181.6</t>
-  </si>
-  <si>
-    <t>13347717.262</t>
-  </si>
-  <si>
-    <t>6769717.911</t>
-  </si>
-  <si>
-    <t>13347953.957</t>
-  </si>
-  <si>
-    <t>6770179.114</t>
-  </si>
-  <si>
-    <t>13347806.924</t>
-  </si>
-  <si>
-    <t>6721073.996</t>
-  </si>
-  <si>
-    <t>13346613.81</t>
-  </si>
-  <si>
-    <t>6721637.144</t>
-  </si>
-  <si>
     <t>90.8</t>
   </si>
   <si>
     <t>3.8</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.073</t>
   </si>
 </sst>
 </file>
@@ -363,7 +216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -387,6 +240,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -701,9 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,10 +578,10 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,14 +683,14 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>73</v>
+      <c r="B6" s="8">
+        <v>13351771.800000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6778604.7000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -923,14 +778,14 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
+      <c r="B7" s="8">
+        <v>13352283.800000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6778738.5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1018,14 +873,14 @@
       <c r="A8" s="5">
         <v>85</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
+      <c r="B8" s="8">
+        <v>13351563.859999999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6781441.0199999996</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1113,14 +968,14 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>73</v>
+      <c r="B9" s="8">
+        <v>13352640.59</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6776025.0599999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1208,14 +1063,14 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>73</v>
+      <c r="B10" s="8">
+        <v>13352695.359999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6775637.7699999996</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1303,14 +1158,14 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
+      <c r="B11" s="8">
+        <v>13354594.970000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6764637.4500000002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -1398,14 +1253,14 @@
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>73</v>
+      <c r="B12" s="8">
+        <v>13355104.67</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6769016.5700000003</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1493,14 +1348,14 @@
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>73</v>
+      <c r="B13" s="8">
+        <v>13355307.710000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6787214.3200000003</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1588,14 +1443,14 @@
       <c r="A14" s="5">
         <v>906</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>73</v>
+      <c r="B14" s="8">
+        <v>13354625.119999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6786351.2000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1683,14 +1538,14 @@
       <c r="A15" s="5">
         <v>1120</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>74</v>
+      <c r="B15" s="8">
+        <v>13359299.609999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6753196.54</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1778,14 +1633,14 @@
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>73</v>
+      <c r="B16" s="8">
+        <v>13358752.4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6755800.7000000002</v>
+      </c>
+      <c r="D16" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1879,8 +1734,8 @@
       <c r="C17" s="5">
         <v>6788612</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>73</v>
+      <c r="D17" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1968,14 +1823,14 @@
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>73</v>
+      <c r="B18" s="8">
+        <v>13350437.5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6785506.9000000004</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2063,14 +1918,14 @@
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>73</v>
+      <c r="B19" s="8">
+        <v>13356150.6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6760796.0999999996</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -2158,14 +2013,14 @@
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>73</v>
+      <c r="B20" s="8">
+        <v>13354650.300000001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6758053.0999999996</v>
+      </c>
+      <c r="D20" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -2253,14 +2108,14 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>73</v>
+      <c r="B21" s="8">
+        <v>13353526.01</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6785051.6100000003</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -2348,14 +2203,14 @@
       <c r="A22" s="5">
         <v>247</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>73</v>
+      <c r="B22" s="8">
+        <v>13353257.369999999</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6784975.6100000003</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -2443,14 +2298,14 @@
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>73</v>
+      <c r="B23" s="8">
+        <v>13353418.699999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6785111.0999999996</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -2541,11 +2396,11 @@
       <c r="B24" s="5">
         <v>13351563</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>73</v>
+      <c r="C24" s="8">
+        <v>6787513.7999999998</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -2633,14 +2488,14 @@
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>73</v>
+      <c r="B25" s="8">
+        <v>13351230.5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6782477.2999999998</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -2728,14 +2583,14 @@
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>73</v>
+      <c r="B26" s="8">
+        <v>13360134.4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6763181.5999999996</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -2823,14 +2678,14 @@
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>73</v>
+      <c r="B27" s="8">
+        <v>13347717.262</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6769717.9110000003</v>
+      </c>
+      <c r="D27" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -2918,14 +2773,14 @@
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>73</v>
+      <c r="B28" s="8">
+        <v>13347953.957</v>
+      </c>
+      <c r="C28" s="8">
+        <v>6770179.1140000001</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -3013,14 +2868,14 @@
       <c r="A29" s="5">
         <v>52</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>73</v>
+      <c r="B29" s="8">
+        <v>13347806.924000001</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6721073.9960000003</v>
+      </c>
+      <c r="D29" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -3108,14 +2963,14 @@
       <c r="A30" s="5">
         <v>1041</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>73</v>
+      <c r="B30" s="8">
+        <v>13346613.810000001</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6721637.1440000003</v>
+      </c>
+      <c r="D30" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
